--- a/data/scheduling_DNN/predict/0.1/result21.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result21.xlsx
@@ -570,10 +570,10 @@
         <v>1.320313215255737</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.4711791276931763</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7216838002204895</v>
+        <v>0.7210286855697632</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9480628967285156</v>
       </c>
       <c r="V3" t="n">
-        <v>0.473930835723877</v>
+        <v>0.8797812461853027</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2248012125492096</v>
+        <v>0.004662383813410997</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9402868747711182</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.491040050983429</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0803443118929863</v>
+        <v>0.2018227130174637</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8885459899902344</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.492189347743988</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2479148656129837</v>
+        <v>0.1570985913276672</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8651819229125977</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.4937601685523987</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2352182567119598</v>
+        <v>0.1379541158676147</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8659579753875732</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.906139612197876</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1850841492414474</v>
+        <v>0.001614563982002437</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9259200096130371</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.4674534797668457</v>
       </c>
       <c r="W8" t="n">
-        <v>0.240000307559967</v>
+        <v>0.2101915627717972</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8887121677398682</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.9308203458786011</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1125904098153114</v>
+        <v>0.001773098716512322</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8594357967376709</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.5299596786499023</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08453828096389771</v>
+        <v>0.1085545122623444</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8920040130615234</v>
       </c>
       <c r="V11" t="n">
-        <v>0.561543881893158</v>
+        <v>0.8994329571723938</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1092038974165916</v>
+        <v>5.518921170732938e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9354069232940674</v>
       </c>
       <c r="V12" t="n">
-        <v>0.624763011932373</v>
+        <v>0.4788941144943237</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09649963676929474</v>
+        <v>0.2084039449691772</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8890590667724609</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.929731547832489</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1462295204401016</v>
+        <v>0.00165425066370517</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9066929817199707</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.509068489074707</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1665004789829254</v>
+        <v>0.1581052392721176</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9136340618133545</v>
       </c>
       <c r="V15" t="n">
-        <v>0.57613205909729</v>
+        <v>0.9340200424194336</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1139076054096222</v>
+        <v>0.0004155882052145898</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.9639661312103271</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5854043960571289</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2784246504306793</v>
+        <v>0.1433089822530746</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8712770938873291</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.5297399163246155</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1705633103847504</v>
+        <v>0.1166476458311081</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8624269962310791</v>
       </c>
       <c r="V18" t="n">
-        <v>0.476378470659256</v>
+        <v>0.9311829209327698</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1490334570407867</v>
+        <v>0.004727377090603113</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8537077903747559</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5846563577651978</v>
       </c>
       <c r="W19" t="n">
-        <v>0.08278980851173401</v>
+        <v>0.0723886713385582</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8648440837860107</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.4919109344482422</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1656096577644348</v>
+        <v>0.1390791386365891</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8697218894958496</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4790114760398865</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01518853660672903</v>
+        <v>0.1526546329259872</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5253901481628418</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.8988064527511597</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0004599227977450937</v>
+        <v>0.139439731836319</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.537269115447998</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.8827041983604431</v>
       </c>
       <c r="W23" t="n">
-        <v>0.006757877301424742</v>
+        <v>0.1193253993988037</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5320188999176025</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.5300558805465698</v>
       </c>
       <c r="W24" t="n">
-        <v>0.001314416527748108</v>
+        <v>3.853444923151983e-06</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5447978973388672</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4873129427433014</v>
+        <v>1.089699387550354</v>
       </c>
       <c r="W25" t="n">
-        <v>0.003304519923403859</v>
+        <v>0.2969176471233368</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5264961719512939</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9458171725273132</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01027483306825161</v>
+        <v>0.1758300960063934</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5144679546356201</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.9041105508804321</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01667440496385098</v>
+        <v>0.1518213599920273</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5146501064300537</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.9619694352149963</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0104499151930213</v>
+        <v>0.2000945806503296</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5199549198150635</v>
       </c>
       <c r="V29" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.9130850434303284</v>
       </c>
       <c r="W29" t="n">
-        <v>0.0168628878891468</v>
+        <v>0.1545512974262238</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5482559204101562</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4806328415870667</v>
       </c>
       <c r="W30" t="n">
-        <v>0.009907249361276627</v>
+        <v>0.004572880920022726</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.510612964630127</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.9021500945091248</v>
       </c>
       <c r="W31" t="n">
-        <v>0.005563450045883656</v>
+        <v>0.153301328420639</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5222899913787842</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.5846341848373413</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01902028918266296</v>
+        <v>0.003886798396706581</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5149788856506348</v>
       </c>
       <c r="V33" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4810567498207092</v>
       </c>
       <c r="W33" t="n">
-        <v>0.09105835109949112</v>
+        <v>0.001150711323134601</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5216069221496582</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5857396125793457</v>
       </c>
       <c r="W34" t="n">
-        <v>0.004084900487214327</v>
+        <v>0.004113001748919487</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5687751770019531</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.8702491521835327</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01089958008378744</v>
+        <v>0.09088655561208725</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5152690410614014</v>
       </c>
       <c r="V36" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.8805362582206726</v>
       </c>
       <c r="W36" t="n">
-        <v>0.001791384653188288</v>
+        <v>0.1334201395511627</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5148558616638184</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.5325524806976318</v>
       </c>
       <c r="W37" t="n">
-        <v>0.005303165875375271</v>
+        <v>0.0003131703124381602</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5134739875793457</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4776847362518311</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001029762905091047</v>
+        <v>0.001280870521441102</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5125010013580322</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.5040350556373596</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0126325935125351</v>
+        <v>7.167223520809785e-05</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.513469934463501</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.5863745808601379</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01160624716430902</v>
+        <v>0.005315087269991636</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5368750095367432</v>
       </c>
       <c r="V41" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4791359901428223</v>
       </c>
       <c r="W41" t="n">
-        <v>0.02285731211304665</v>
+        <v>0.003333794418722391</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4035530090332031</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.529434859752655</v>
       </c>
       <c r="W42" t="n">
-        <v>0.04854735732078552</v>
+        <v>0.01584624126553535</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4097630977630615</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.9211015105247498</v>
       </c>
       <c r="W43" t="n">
-        <v>0.002387827960774302</v>
+        <v>0.2614669799804688</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.387645959854126</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.9201707243919373</v>
       </c>
       <c r="W44" t="n">
-        <v>0.002977161668241024</v>
+        <v>0.2835826277732849</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3861701488494873</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.8934674859046936</v>
       </c>
       <c r="W45" t="n">
-        <v>0.05718299373984337</v>
+        <v>0.2573505938053131</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3872168064117432</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4859651327133179</v>
       </c>
       <c r="W46" t="n">
-        <v>0.05399106070399284</v>
+        <v>0.009751232340931892</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4248640537261963</v>
       </c>
       <c r="V47" t="n">
-        <v>0.473088413476944</v>
+        <v>0.4841578602790833</v>
       </c>
       <c r="W47" t="n">
-        <v>0.002325588837265968</v>
+        <v>0.003515755524858832</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3907711505889893</v>
       </c>
       <c r="V48" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9518207311630249</v>
       </c>
       <c r="W48" t="n">
-        <v>0.05211875587701797</v>
+        <v>0.3147766292095184</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3862900733947754</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.4888017177581787</v>
       </c>
       <c r="W49" t="n">
-        <v>0.02768196351826191</v>
+        <v>0.01050863694399595</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3842730522155762</v>
       </c>
       <c r="V50" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.5556461811065674</v>
       </c>
       <c r="W50" t="n">
-        <v>0.05821153149008751</v>
+        <v>0.02936874888837337</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3844549655914307</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5995157957077026</v>
       </c>
       <c r="W51" t="n">
-        <v>0.03420169278979301</v>
+        <v>0.04625115916132927</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3946700096130371</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.4940655827522278</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001739019760861993</v>
+        <v>0.009879480116069317</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.439457893371582</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4963541030883789</v>
       </c>
       <c r="W53" t="n">
-        <v>0.04778826981782913</v>
+        <v>0.003237178782001138</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3857290744781494</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.9039853811264038</v>
       </c>
       <c r="W54" t="n">
-        <v>0.05768409371376038</v>
+        <v>0.268589586019516</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.388840913772583</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.4776928424835205</v>
       </c>
       <c r="W55" t="n">
-        <v>0.06978978216648102</v>
+        <v>0.007894665002822876</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3869469165802002</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4885746836662292</v>
       </c>
       <c r="W56" t="n">
-        <v>0.002408540574833751</v>
+        <v>0.01032820343971252</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3809330463409424</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.6001453399658203</v>
       </c>
       <c r="W57" t="n">
-        <v>0.03261181339621544</v>
+        <v>0.04805402830243111</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3840928077697754</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.937084436416626</v>
       </c>
       <c r="W58" t="n">
-        <v>0.188952699303627</v>
+        <v>0.3057997524738312</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3877999782562256</v>
       </c>
       <c r="V59" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4827825427055359</v>
       </c>
       <c r="W59" t="n">
-        <v>0.01383207924664021</v>
+        <v>0.00902168732136488</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865070343017578</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.4799222350120544</v>
       </c>
       <c r="W60" t="n">
-        <v>0.01493444573134184</v>
+        <v>0.008726399391889572</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3878018856048584</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4678385257720947</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1837721168994904</v>
+        <v>0.006405863910913467</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8705651760101318</v>
       </c>
       <c r="V62" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5176977515220642</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1894222050905228</v>
+        <v>0.1245154216885567</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.9104259014129639</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4825574159622192</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1649234294891357</v>
+        <v>0.1830714344978333</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9168860912322998</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.8765849471092224</v>
       </c>
       <c r="W64" t="n">
-        <v>0.231240525841713</v>
+        <v>0.001624182215891778</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8793699741363525</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.4872618913650513</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1625640839338303</v>
+        <v>0.1537487506866455</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8733141422271729</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.5090441703796387</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1015818193554878</v>
+        <v>0.1326926052570343</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8648488521575928</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.4810697436332703</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1838878840208054</v>
+        <v>0.1472864001989365</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9365630149841309</v>
       </c>
       <c r="V68" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.4671260714530945</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1478058099746704</v>
+        <v>0.2203710377216339</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8779940605163574</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.5325223803520203</v>
       </c>
       <c r="W69" t="n">
-        <v>0.2456873208284378</v>
+        <v>0.1193506792187691</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8750770092010498</v>
       </c>
       <c r="V70" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4814888834953308</v>
       </c>
       <c r="W70" t="n">
-        <v>0.003175993449985981</v>
+        <v>0.154911607503891</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8737468719482422</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9189079403877258</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2449285387992859</v>
+        <v>0.002039522165432572</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9462640285491943</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4637249708175659</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2228711992502213</v>
+        <v>0.2328439354896545</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8799328804016113</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.9142884016036987</v>
       </c>
       <c r="W73" t="n">
-        <v>0.06521591544151306</v>
+        <v>0.001180301886051893</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8752808570861816</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.5298833847045898</v>
       </c>
       <c r="W74" t="n">
-        <v>0.06449908018112183</v>
+        <v>0.1192994117736816</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8798909187316895</v>
       </c>
       <c r="V75" t="n">
-        <v>0.435836523771286</v>
+        <v>0.8804895281791687</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1971843093633652</v>
+        <v>3.583332670586969e-07</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9376809597015381</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.8979207873344421</v>
       </c>
       <c r="W76" t="n">
-        <v>0.151709571480751</v>
+        <v>0.001580871292389929</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8895959854125977</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.9490286707878113</v>
       </c>
       <c r="W77" t="n">
-        <v>0.113091729581356</v>
+        <v>0.003532244125381112</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8600931167602539</v>
       </c>
       <c r="V78" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4817863702774048</v>
       </c>
       <c r="W78" t="n">
-        <v>0.001901383046060801</v>
+        <v>0.1431159973144531</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.858795166015625</v>
       </c>
       <c r="V79" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4773142337799072</v>
       </c>
       <c r="W79" t="n">
-        <v>0.002183429431170225</v>
+        <v>0.1455277055501938</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9251949787139893</v>
       </c>
       <c r="V80" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5805311799049377</v>
       </c>
       <c r="W80" t="n">
-        <v>0.09399425983428955</v>
+        <v>0.1187931373715401</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8915979862213135</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.4901716709136963</v>
       </c>
       <c r="W81" t="n">
-        <v>0.05499066412448883</v>
+        <v>0.1611430794000626</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5489029884338379</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5097843408584595</v>
       </c>
       <c r="W82" t="n">
-        <v>0.006188578903675079</v>
+        <v>0.001530268578790128</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5433211326599121</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.9134055972099304</v>
       </c>
       <c r="W83" t="n">
-        <v>0.007343607023358345</v>
+        <v>0.1369625180959702</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5219459533691406</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.9196177124977112</v>
       </c>
       <c r="W84" t="n">
-        <v>0.009810250252485275</v>
+        <v>0.1581428349018097</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.543834924697876</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.4704023599624634</v>
       </c>
       <c r="W85" t="n">
-        <v>0.001818329794332385</v>
+        <v>0.005392341408878565</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5441179275512695</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.4936739802360535</v>
       </c>
       <c r="W86" t="n">
-        <v>5.898512972635217e-05</v>
+        <v>0.002544591901823878</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5501248836517334</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.529883861541748</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0181316789239645</v>
+        <v>0.0004096989869140089</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.524785041809082</v>
       </c>
       <c r="V88" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.4996960759162903</v>
       </c>
       <c r="W88" t="n">
-        <v>0.009910251945257187</v>
+        <v>0.0006294561899267137</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5205450057983398</v>
       </c>
       <c r="V89" t="n">
-        <v>0.551807165145874</v>
+        <v>0.485573947429657</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0009773225756362081</v>
+        <v>0.001222974970005453</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5185980796813965</v>
       </c>
       <c r="V90" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.4776642322540283</v>
       </c>
       <c r="W90" t="n">
-        <v>0.001221395446918905</v>
+        <v>0.001675579813309014</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5435779094696045</v>
       </c>
       <c r="V91" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.4776991605758667</v>
       </c>
       <c r="W91" t="n">
-        <v>0.001591044943779707</v>
+        <v>0.004340009763836861</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5199708938598633</v>
       </c>
       <c r="V92" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5855777263641357</v>
       </c>
       <c r="W92" t="n">
-        <v>0.04516429454088211</v>
+        <v>0.004304256290197372</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5197699069976807</v>
       </c>
       <c r="V93" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.5530266761779785</v>
       </c>
       <c r="W93" t="n">
-        <v>0.001413852674886584</v>
+        <v>0.001106012728996575</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5392677783966064</v>
       </c>
       <c r="V94" t="n">
-        <v>0.504918098449707</v>
+        <v>0.4855687022209167</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001179900486022234</v>
+        <v>0.002883590757846832</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5890130996704102</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.5529825091362</v>
       </c>
       <c r="W95" t="n">
-        <v>0.00923463236540556</v>
+        <v>0.001298203482292593</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5206778049468994</v>
       </c>
       <c r="V96" t="n">
-        <v>0.630542516708374</v>
+        <v>0.9261868596076965</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01207025535404682</v>
+        <v>0.1644375920295715</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5191349983215332</v>
       </c>
       <c r="V97" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.5839101672172546</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02374289743602276</v>
+        <v>0.004195822402834892</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5156140327453613</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5852773785591125</v>
       </c>
       <c r="W98" t="n">
-        <v>0.002015081467106938</v>
+        <v>0.004852981772273779</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.517219066619873</v>
       </c>
       <c r="V99" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.5295991897583008</v>
       </c>
       <c r="W99" t="n">
-        <v>0.01049121841788292</v>
+        <v>0.0001532674505142495</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.572037935256958</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.8744982481002808</v>
       </c>
       <c r="W100" t="n">
-        <v>1.634378349990584e-05</v>
+        <v>0.0914822444319725</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5207071304321289</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.4776669144630432</v>
       </c>
       <c r="W101" t="n">
-        <v>0.007171124685555696</v>
+        <v>0.001852460205554962</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4162211418151855</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.923318088054657</v>
       </c>
       <c r="W102" t="n">
-        <v>0.006291853729635477</v>
+        <v>0.2571473121643066</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4049570560455322</v>
       </c>
       <c r="V103" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.9049874544143677</v>
       </c>
       <c r="W103" t="n">
-        <v>0.04799874871969223</v>
+        <v>0.2500303983688354</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4108641147613525</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5221573114395142</v>
       </c>
       <c r="W104" t="n">
-        <v>0.04715457558631897</v>
+        <v>0.01238617580384016</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4357230663299561</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4965279698371887</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0003205675748176873</v>
+        <v>0.003697236301377416</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.5688118934631348</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.9049091339111328</v>
       </c>
       <c r="W106" t="n">
-        <v>0.002522696275264025</v>
+        <v>0.1129613518714905</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4149539470672607</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.918428361415863</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0004437328316271305</v>
+        <v>0.2534864842891693</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.4189770221710205</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.8774046301841736</v>
       </c>
       <c r="W108" t="n">
-        <v>0.00221138377673924</v>
+        <v>0.2101558744907379</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3963029384613037</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.482664942741394</v>
       </c>
       <c r="W109" t="n">
-        <v>0.02415665611624718</v>
+        <v>0.007458395790308714</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4038569927215576</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.4720196723937988</v>
       </c>
       <c r="W110" t="n">
-        <v>0.02156271412968636</v>
+        <v>0.00464615086093545</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3892538547515869</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.9166072607040405</v>
       </c>
       <c r="W111" t="n">
-        <v>0.002197558991611004</v>
+        <v>0.2781016230583191</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4612789154052734</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.8858582377433777</v>
       </c>
       <c r="W112" t="n">
-        <v>0.03269612789154053</v>
+        <v>0.1802676022052765</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3899929523468018</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.491756796836853</v>
       </c>
       <c r="W113" t="n">
-        <v>0.05234913900494576</v>
+        <v>0.01035588048398495</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3886339664459229</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4857106804847717</v>
       </c>
       <c r="W114" t="n">
-        <v>0.004312264733016491</v>
+        <v>0.00942388828843832</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3878910541534424</v>
       </c>
       <c r="V115" t="n">
-        <v>0.436014860868454</v>
+        <v>0.9319279789924622</v>
       </c>
       <c r="W115" t="n">
-        <v>0.002315900754183531</v>
+        <v>0.2959761619567871</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3904519081115723</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.4676110744476318</v>
       </c>
       <c r="W116" t="n">
-        <v>0.002075825119391084</v>
+        <v>0.005953536834567785</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3936910629272461</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4747799038887024</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0002294857986271381</v>
+        <v>0.00657540000975132</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4031960964202881</v>
       </c>
       <c r="V118" t="n">
-        <v>0.816550612449646</v>
+        <v>0.5128423571586609</v>
       </c>
       <c r="W118" t="n">
-        <v>0.1708619594573975</v>
+        <v>0.01202230248600245</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4016890525817871</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.4745385646820068</v>
       </c>
       <c r="W119" t="n">
-        <v>0.003265741746872663</v>
+        <v>0.005307051353156567</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3911011219024658</v>
       </c>
       <c r="V120" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.5846971273422241</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1116014719009399</v>
+        <v>0.03747941181063652</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3867089748382568</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.9667231440544128</v>
       </c>
       <c r="W121" t="n">
-        <v>0.06774363666772842</v>
+        <v>0.3364164233207703</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8612039089202881</v>
       </c>
       <c r="V122" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4974547028541565</v>
       </c>
       <c r="W122" t="n">
-        <v>0.162369966506958</v>
+        <v>0.1323134899139404</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.939953088760376</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.5854280591011047</v>
       </c>
       <c r="W123" t="n">
-        <v>0.01483060978353024</v>
+        <v>0.1256880015134811</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8658590316772461</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.4669689536094666</v>
       </c>
       <c r="W124" t="n">
-        <v>0.09752941131591797</v>
+        <v>0.1591132879257202</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.864469051361084</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5063225030899048</v>
       </c>
       <c r="W125" t="n">
-        <v>0.09759896248579025</v>
+        <v>0.1282689571380615</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8848268985748291</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.8978167772293091</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1121309548616409</v>
+        <v>0.0001687369513092563</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8893630504608154</v>
       </c>
       <c r="V127" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.9288394451141357</v>
       </c>
       <c r="W127" t="n">
-        <v>0.05787866190075874</v>
+        <v>0.001558385789394379</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.853477954864502</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.9023588299751282</v>
       </c>
       <c r="W128" t="n">
-        <v>0.2223751097917557</v>
+        <v>0.002389339962974191</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8523430824279785</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.88334059715271</v>
       </c>
       <c r="W129" t="n">
-        <v>0.09298264980316162</v>
+        <v>0.0009608459076844156</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8554348945617676</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.4883875846862793</v>
       </c>
       <c r="W130" t="n">
-        <v>0.082776740193367</v>
+        <v>0.1347237229347229</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9184160232543945</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.5851190686225891</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1008139699697495</v>
+        <v>0.1110868602991104</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.876964807510376</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.4961620569229126</v>
       </c>
       <c r="W132" t="n">
-        <v>0.04669688269495964</v>
+        <v>0.1450107395648956</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8961479663848877</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.512287974357605</v>
       </c>
       <c r="W133" t="n">
-        <v>0.06869015097618103</v>
+        <v>0.1473484933376312</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8589770793914795</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.5297977924346924</v>
       </c>
       <c r="W134" t="n">
-        <v>0.09386058151721954</v>
+        <v>0.1083590015769005</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9250719547271729</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.8853579759597778</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1771670877933502</v>
+        <v>0.001577200135216117</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8631088733673096</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.4811315536499023</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1662413775920868</v>
+        <v>0.1459066718816757</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8632228374481201</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.5298545360565186</v>
       </c>
       <c r="W137" t="n">
-        <v>0.097163125872612</v>
+        <v>0.1111344248056412</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8622260093688965</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4792564511299133</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1636925637722015</v>
+        <v>0.1466656774282455</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.913905143737793</v>
       </c>
       <c r="V139" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.5851444602012634</v>
       </c>
       <c r="W139" t="n">
-        <v>0.1172906309366226</v>
+        <v>0.1080835834145546</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8606901168823242</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.9441796541213989</v>
       </c>
       <c r="W140" t="n">
-        <v>0.09338366240262985</v>
+        <v>0.006970502901822329</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8599128723144531</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4772395491600037</v>
       </c>
       <c r="W141" t="n">
-        <v>0.05825997516512871</v>
+        <v>0.146438866853714</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5233139991760254</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.4708321690559387</v>
       </c>
       <c r="W142" t="n">
-        <v>0.00767905917018652</v>
+        <v>0.002754342509433627</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5145010948181152</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.5022653937339783</v>
       </c>
       <c r="W143" t="n">
-        <v>0.002533632330596447</v>
+        <v>0.0001497123739682138</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5724599361419678</v>
       </c>
       <c r="V144" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.8851376175880432</v>
       </c>
       <c r="W144" t="n">
-        <v>0.03766785562038422</v>
+        <v>0.09776733070611954</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.6179180145263672</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.9450633525848389</v>
       </c>
       <c r="W145" t="n">
-        <v>0.000665079802274704</v>
+        <v>0.107024073600769</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5191648006439209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4796863794326782</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01977728493511677</v>
+        <v>0.001558545744046569</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5354290008544922</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.4808733463287354</v>
       </c>
       <c r="W147" t="n">
-        <v>0.0002866970316972584</v>
+        <v>0.002976319519802928</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5162591934204102</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.5126804709434509</v>
       </c>
       <c r="W148" t="n">
-        <v>0.006438650656491518</v>
+        <v>1.280725427932339e-05</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5723109245300293</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4933605790138245</v>
       </c>
       <c r="W149" t="n">
-        <v>0.007437758147716522</v>
+        <v>0.006233157124370337</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5191628932952881</v>
       </c>
       <c r="V150" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5296698212623596</v>
       </c>
       <c r="W150" t="n">
-        <v>0.00104906561318785</v>
+        <v>0.0001103955364669673</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5152499675750732</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.8867177367210388</v>
       </c>
       <c r="W151" t="n">
-        <v>0.01859842054545879</v>
+        <v>0.1379882991313934</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5122280120849609</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.5297306180000305</v>
       </c>
       <c r="W152" t="n">
-        <v>0.003439747495576739</v>
+        <v>0.0003063412150368094</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5145509243011475</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4903517365455627</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01197496708482504</v>
+        <v>0.0005856006755493581</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5131349563598633</v>
       </c>
       <c r="V154" t="n">
-        <v>0.390147477388382</v>
+        <v>0.507481575012207</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01512592006474733</v>
+        <v>3.19607206620276e-05</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5180058479309082</v>
       </c>
       <c r="V155" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.4818800687789917</v>
       </c>
       <c r="W155" t="n">
-        <v>0.0002580689615570009</v>
+        <v>0.00130507186986506</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5189788341522217</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4824900031089783</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01105892565101385</v>
+        <v>0.0013314348179847</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5200119018554688</v>
       </c>
       <c r="V157" t="n">
-        <v>0.551541268825531</v>
+        <v>0.8977400660514832</v>
       </c>
       <c r="W157" t="n">
-        <v>0.000994100933894515</v>
+        <v>0.1426785588264465</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5203220844268799</v>
       </c>
       <c r="V158" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.5298030972480774</v>
       </c>
       <c r="W158" t="n">
-        <v>0.02334615401923656</v>
+        <v>8.988960325950757e-05</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5156018733978271</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.9453566670417786</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0031869534868747</v>
+        <v>0.1846891790628433</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5784480571746826</v>
       </c>
       <c r="V160" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.9073967337608337</v>
       </c>
       <c r="W160" t="n">
-        <v>0.01444294117391109</v>
+        <v>0.1082072332501411</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5193929672241211</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.4788870215415955</v>
       </c>
       <c r="W161" t="n">
-        <v>0.001978276530280709</v>
+        <v>0.001640731585212052</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3880209922790527</v>
       </c>
       <c r="V162" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.496293842792511</v>
       </c>
       <c r="W162" t="n">
-        <v>0.004975724965333939</v>
+        <v>0.01172300986945629</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3855900764465332</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.8967308402061462</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01332444231957197</v>
+        <v>0.2612648904323578</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3915259838104248</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.5003206729888916</v>
       </c>
       <c r="W164" t="n">
-        <v>0.03230516612529755</v>
+        <v>0.01183628477156162</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3899750709533691</v>
       </c>
       <c r="V165" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.4928405284881592</v>
       </c>
       <c r="W165" t="n">
-        <v>0.002120666671544313</v>
+        <v>0.01058130245655775</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4230360984802246</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.8925073742866516</v>
       </c>
       <c r="W166" t="n">
-        <v>0.04959539696574211</v>
+        <v>0.2204032838344574</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3927850723266602</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.483040988445282</v>
       </c>
       <c r="W167" t="n">
-        <v>0.005089637357741594</v>
+        <v>0.008146130479872227</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3920869827270508</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.4774494171142578</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01203221268951893</v>
+        <v>0.007286745123565197</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3989369869232178</v>
       </c>
       <c r="V169" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.8783732056617737</v>
       </c>
       <c r="W169" t="n">
-        <v>0.1745685487985611</v>
+        <v>0.2298590838909149</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3898389339447021</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.467229425907135</v>
       </c>
       <c r="W170" t="n">
-        <v>0.004064545035362244</v>
+        <v>0.005989288445562124</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.389613151550293</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.9146328568458557</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01297848019748926</v>
+        <v>0.2756457030773163</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3911490440368652</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.4988202452659607</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1866448372602463</v>
+        <v>0.01159308757632971</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3930819034576416</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4852871298789978</v>
       </c>
       <c r="W173" t="n">
-        <v>0.02430094592273235</v>
+        <v>0.008501803502440453</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3998050689697266</v>
       </c>
       <c r="V174" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5037559270858765</v>
       </c>
       <c r="W174" t="n">
-        <v>0.1700400412082672</v>
+        <v>0.01080578099936247</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.392941951751709</v>
       </c>
       <c r="V175" t="n">
-        <v>0.56879723072052</v>
+        <v>0.5057414770126343</v>
       </c>
       <c r="W175" t="n">
-        <v>0.030925078317523</v>
+        <v>0.01272373273968697</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3921229839324951</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.8961830735206604</v>
       </c>
       <c r="W176" t="n">
-        <v>0.053831797093153</v>
+        <v>0.2540765702724457</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.408768892288208</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.4682130217552185</v>
       </c>
       <c r="W177" t="n">
-        <v>0.004345559515058994</v>
+        <v>0.003533604554831982</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3911168575286865</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4792255163192749</v>
       </c>
       <c r="W178" t="n">
-        <v>0.02836485952138901</v>
+        <v>0.007763135712593794</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.4370520114898682</v>
       </c>
       <c r="V179" t="n">
-        <v>0.475897878408432</v>
+        <v>0.5325378179550171</v>
       </c>
       <c r="W179" t="n">
-        <v>0.001509001362137496</v>
+        <v>0.009117539040744305</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3901550769805908</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.4917032122612</v>
       </c>
       <c r="W180" t="n">
-        <v>0.03195707499980927</v>
+        <v>0.01031202357262373</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.400831937789917</v>
       </c>
       <c r="V181" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.8802623748779297</v>
       </c>
       <c r="W181" t="n">
-        <v>0.1127250865101814</v>
+        <v>0.2298535406589508</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.880457878112793</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.4820896983146667</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1476496160030365</v>
+        <v>0.1586972028017044</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9463739395141602</v>
       </c>
       <c r="V183" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.6011273860931396</v>
       </c>
       <c r="W183" t="n">
-        <v>0.2413199245929718</v>
+        <v>0.1191951856017113</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8893389701843262</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.5122862458229065</v>
       </c>
       <c r="W184" t="n">
-        <v>0.05404586344957352</v>
+        <v>0.1421687602996826</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8857569694519043</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9586589932441711</v>
       </c>
       <c r="W185" t="n">
-        <v>0.06993573158979416</v>
+        <v>0.005314704962074757</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8661730289459229</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.5531851649284363</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1538565307855606</v>
+        <v>0.09796140342950821</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8864290714263916</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.885012149810791</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1688388139009476</v>
+        <v>2.007666807912756e-06</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8661701679229736</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4918041825294495</v>
       </c>
       <c r="W188" t="n">
-        <v>0.1330874562263489</v>
+        <v>0.1401498913764954</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8734450340270996</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9151527881622314</v>
       </c>
       <c r="W189" t="n">
-        <v>0.06588982790708542</v>
+        <v>0.001739536761306226</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8672969341278076</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.512151837348938</v>
       </c>
       <c r="W190" t="n">
-        <v>0.160915806889534</v>
+        <v>0.1261280328035355</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8898499011993408</v>
       </c>
       <c r="V191" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.5129721760749817</v>
       </c>
       <c r="W191" t="n">
-        <v>0.02341144345700741</v>
+        <v>0.1420368254184723</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8634569644927979</v>
       </c>
       <c r="V192" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5297618508338928</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1511067003011703</v>
+        <v>0.1113524287939072</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.861767053604126</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4981220960617065</v>
       </c>
       <c r="W193" t="n">
-        <v>0.05575433745980263</v>
+        <v>0.1322376579046249</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8580460548400879</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4919129014015198</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1781024485826492</v>
+        <v>0.1340534836053848</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8613929748535156</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.9268942475318909</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1564714312553406</v>
+        <v>0.004290416836738586</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8621129989624023</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.5105326771736145</v>
       </c>
       <c r="W196" t="n">
-        <v>0.08144249767065048</v>
+        <v>0.123608723282814</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8737771511077881</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4933111667633057</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1746809333562851</v>
+        <v>0.1447543650865555</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.87965989112854</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.8924105763435364</v>
       </c>
       <c r="W198" t="n">
-        <v>0.07562852650880814</v>
+        <v>0.0001625799777684733</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8568170070648193</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.9168617129325867</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1225422471761703</v>
+        <v>0.003605366684496403</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8587801456451416</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.8825411200523376</v>
       </c>
       <c r="W200" t="n">
-        <v>0.05425680428743362</v>
+        <v>0.000564583926461637</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8771359920501709</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.5095760822296143</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1409111618995667</v>
+        <v>0.1351002901792526</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5175518989562988</v>
       </c>
       <c r="V202" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4679476022720337</v>
       </c>
       <c r="W202" t="n">
-        <v>0.05273201316595078</v>
+        <v>0.002460586139932275</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5156941413879395</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.8847507834434509</v>
       </c>
       <c r="W203" t="n">
-        <v>0.006411737762391567</v>
+        <v>0.1362028121948242</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5765178203582764</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.8687329888343811</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01967641524970531</v>
+        <v>0.08538970351219177</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.51792311668396</v>
       </c>
       <c r="V205" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.8719697594642639</v>
       </c>
       <c r="W205" t="n">
-        <v>0.006752209272235632</v>
+        <v>0.1253490298986435</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5236899852752686</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4823845028877258</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02083297073841095</v>
+        <v>0.001706142909824848</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173408985137939</v>
       </c>
       <c r="V207" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4662644863128662</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0205156747251749</v>
+        <v>0.00260879984125495</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5160160064697266</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.477140486240387</v>
       </c>
       <c r="W208" t="n">
-        <v>0.002781907562166452</v>
+        <v>0.001511306036263704</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5155730247497559</v>
       </c>
       <c r="V209" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.477617084980011</v>
       </c>
       <c r="W209" t="n">
-        <v>0.05679755657911301</v>
+        <v>0.001440653344616294</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5194242000579834</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.5838911533355713</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01130906865000725</v>
+        <v>0.004155987873673439</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5208828449249268</v>
       </c>
       <c r="V211" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4859012961387634</v>
       </c>
       <c r="W211" t="n">
-        <v>0.09135529398918152</v>
+        <v>0.001223708735778928</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5191650390625</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.8616504073143005</v>
       </c>
       <c r="W212" t="n">
-        <v>0.006957709323614836</v>
+        <v>0.1172962263226509</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5191090106964111</v>
       </c>
       <c r="V213" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.5088104605674744</v>
       </c>
       <c r="W213" t="n">
-        <v>0.04608302935957909</v>
+        <v>0.0001060601352946833</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5203869342803955</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4827741384506226</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02676303870975971</v>
+        <v>0.001414722413755953</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5787408351898193</v>
       </c>
       <c r="V215" t="n">
-        <v>0.551414966583252</v>
+        <v>0.534647524356842</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0007467030663974583</v>
+        <v>0.001944220042787492</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5214829444885254</v>
       </c>
       <c r="V216" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5065485239028931</v>
       </c>
       <c r="W216" t="n">
-        <v>0.04709329828619957</v>
+        <v>0.0002230369136668742</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5210578441619873</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.5093192458152771</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01067443192005157</v>
+        <v>0.0001377946900902316</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5345721244812012</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.9455500245094299</v>
       </c>
       <c r="W218" t="n">
-        <v>0.005834239069372416</v>
+        <v>0.1689028292894363</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5287280082702637</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.488032341003418</v>
       </c>
       <c r="W219" t="n">
-        <v>0.08019597828388214</v>
+        <v>0.001656137290410697</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5318179130554199</v>
       </c>
       <c r="V220" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.4809082746505737</v>
       </c>
       <c r="W220" t="n">
-        <v>0.08098563551902771</v>
+        <v>0.002591791329905391</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.613286018371582</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5536472201347351</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0009297516080550849</v>
+        <v>0.003556786337867379</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4005370140075684</v>
       </c>
       <c r="V222" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.5329989194869995</v>
       </c>
       <c r="W222" t="n">
-        <v>0.005279410630464554</v>
+        <v>0.01754615642130375</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.4276919364929199</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9020600914955139</v>
       </c>
       <c r="W223" t="n">
-        <v>0.003452925244346261</v>
+        <v>0.2250251471996307</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.5735759735107422</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.4815366864204407</v>
       </c>
       <c r="W224" t="n">
-        <v>6.653202581219375e-05</v>
+        <v>0.008471230044960976</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3975739479064941</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.4904263615608215</v>
       </c>
       <c r="W225" t="n">
-        <v>0.001478157471865416</v>
+        <v>0.008621570654213428</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4543590545654297</v>
       </c>
       <c r="V226" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.8678080439567566</v>
       </c>
       <c r="W226" t="n">
-        <v>0.00585676496848464</v>
+        <v>0.1709400713443756</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4026000499725342</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.8984946608543396</v>
       </c>
       <c r="W227" t="n">
-        <v>0.009829056449234486</v>
+        <v>0.2459114640951157</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4013841152191162</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.5296292304992676</v>
       </c>
       <c r="W228" t="n">
-        <v>0.04960447549819946</v>
+        <v>0.01644681021571159</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4113330841064453</v>
       </c>
       <c r="V229" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.9130426049232483</v>
       </c>
       <c r="W229" t="n">
-        <v>0.1039631888270378</v>
+        <v>0.251712441444397</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.4455850124359131</v>
       </c>
       <c r="V230" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.8920530676841736</v>
       </c>
       <c r="W230" t="n">
-        <v>0.1342399716377258</v>
+        <v>0.1993337273597717</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4383938312530518</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5294657945632935</v>
       </c>
       <c r="W231" t="n">
-        <v>0.004341831896454096</v>
+        <v>0.008294102735817432</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.7085180282592773</v>
       </c>
       <c r="V232" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.48846036195755</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1085780188441277</v>
+        <v>0.04842537641525269</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4016189575195312</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.8843753933906555</v>
       </c>
       <c r="W233" t="n">
-        <v>0.005526579916477203</v>
+        <v>0.2330537736415863</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4007408618927002</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.9524443745613098</v>
       </c>
       <c r="W234" t="n">
-        <v>0.04851747304201126</v>
+        <v>0.3043767511844635</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4051048755645752</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.5037743449211121</v>
       </c>
       <c r="W235" t="n">
-        <v>0.02914470061659813</v>
+        <v>0.00973566435277462</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4086101055145264</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.8860071301460266</v>
       </c>
       <c r="W236" t="n">
-        <v>0.002043742453679442</v>
+        <v>0.2279079258441925</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4528059959411621</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4826423525810242</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02832124941051006</v>
+        <v>0.0008902081754058599</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.446627140045166</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.9020810127258301</v>
       </c>
       <c r="W238" t="n">
-        <v>7.373098924290389e-05</v>
+        <v>0.2074382305145264</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4021868705749512</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.8980705142021179</v>
       </c>
       <c r="W239" t="n">
-        <v>0.003088277298957109</v>
+        <v>0.2459005862474442</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4025900363922119</v>
       </c>
       <c r="V240" t="n">
-        <v>0.56818687915802</v>
+        <v>0.4800346493721008</v>
       </c>
       <c r="W240" t="n">
-        <v>0.02742231450974941</v>
+        <v>0.005997668020427227</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4320521354675293</v>
       </c>
       <c r="V241" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.9073179364204407</v>
       </c>
       <c r="W241" t="n">
-        <v>0.00115639588329941</v>
+        <v>0.225877583026886</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>1.019592046737671</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.506514847278595</v>
       </c>
       <c r="W242" t="n">
-        <v>0.3405474126338959</v>
+        <v>0.2632482051849365</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.006960153579712</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.5850481390953064</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1213982552289963</v>
+        <v>0.1780097484588623</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9398589134216309</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5123220682144165</v>
       </c>
       <c r="W244" t="n">
-        <v>0.2325159460306168</v>
+        <v>0.182787761092186</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8813791275024414</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.8971701264381409</v>
       </c>
       <c r="W245" t="n">
-        <v>0.1794716864824295</v>
+        <v>0.0002493556530680507</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9293780326843262</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4786150455474854</v>
       </c>
       <c r="W246" t="n">
-        <v>0.237323209643364</v>
+        <v>0.2031872719526291</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9588899612426758</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.8850505948066711</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1123193725943565</v>
+        <v>0.005452251993119717</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9625890254974365</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.9483838081359863</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2362435460090637</v>
+        <v>0.0002017882070504129</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9154870510101318</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.47724449634552</v>
       </c>
       <c r="W249" t="n">
-        <v>0.08397018164396286</v>
+        <v>0.1920565366744995</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9801919460296631</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4800138473510742</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1046836674213409</v>
+        <v>0.2501781284809113</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.872157096862793</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.4935547709465027</v>
       </c>
       <c r="W251" t="n">
-        <v>0.05232939496636391</v>
+        <v>0.1433397233486176</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8728799819946289</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.8858368992805481</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1013552695512772</v>
+        <v>0.0001678817061474547</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8638460636138916</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5063616037368774</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1294748187065125</v>
+        <v>0.1277951449155807</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9193229675292969</v>
       </c>
       <c r="V254" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4820473790168762</v>
       </c>
       <c r="W254" t="n">
-        <v>0.08630239963531494</v>
+        <v>0.1912099421024323</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8698580265045166</v>
       </c>
       <c r="V255" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4676216840744019</v>
       </c>
       <c r="W255" t="n">
-        <v>0.04468574002385139</v>
+        <v>0.1617940813302994</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8789539337158203</v>
       </c>
       <c r="V256" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.9459765553474426</v>
       </c>
       <c r="W256" t="n">
-        <v>0.02374117076396942</v>
+        <v>0.004492031875997782</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8937430381774902</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4673961400985718</v>
       </c>
       <c r="W257" t="n">
-        <v>0.189460501074791</v>
+        <v>0.1817716807126999</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9181449413299561</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.4678986668586731</v>
       </c>
       <c r="W258" t="n">
-        <v>0.08622103184461594</v>
+        <v>0.2027217149734497</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8657140731811523</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.5864152312278748</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1849934458732605</v>
+        <v>0.07800783962011337</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8653199672698975</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.5045267939567566</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1591562628746033</v>
+        <v>0.1301717162132263</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8628759384155273</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.8911697268486023</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1532638967037201</v>
+        <v>0.0008005384588614106</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5724320411682129</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.4671670198440552</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01359990518540144</v>
+        <v>0.01108072511851788</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5396618843078613</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.9460254311561584</v>
       </c>
       <c r="W263" t="n">
-        <v>0.006742309313267469</v>
+        <v>0.1651313304901123</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5234329700469971</v>
       </c>
       <c r="V264" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5122504234313965</v>
       </c>
       <c r="W264" t="n">
-        <v>0.002730305306613445</v>
+        <v>0.0001250493514817208</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5247159004211426</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.5505579113960266</v>
       </c>
       <c r="W265" t="n">
-        <v>1.358967551823298e-06</v>
+        <v>0.0006678095087409019</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5186638832092285</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.5326410531997681</v>
       </c>
       <c r="W266" t="n">
-        <v>0.004146866966038942</v>
+        <v>0.0001953612809302285</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.532249927520752</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.4825982451438904</v>
       </c>
       <c r="W267" t="n">
-        <v>0.08056051284074783</v>
+        <v>0.002465289551764727</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5227878093719482</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.4799342155456543</v>
       </c>
       <c r="W268" t="n">
-        <v>0.002716472605243325</v>
+        <v>0.001836430514231324</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5436849594116211</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.479772686958313</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01167753711342812</v>
+        <v>0.004084778483957052</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5191640853881836</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.8807966113090515</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01045062206685543</v>
+        <v>0.1307780891656876</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5202240943908691</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.8857030272483826</v>
       </c>
       <c r="W271" t="n">
-        <v>0.003926859237253666</v>
+        <v>0.1335748434066772</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5512290000915527</v>
       </c>
       <c r="V272" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.516855776309967</v>
       </c>
       <c r="W272" t="n">
-        <v>0.000306835921946913</v>
+        <v>0.001181518542580307</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5764110088348389</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.5161827206611633</v>
       </c>
       <c r="W273" t="n">
-        <v>0.01252539921551943</v>
+        <v>0.00362744671292603</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5385720729827881</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.5296560525894165</v>
       </c>
       <c r="W274" t="n">
-        <v>0.001415251521393657</v>
+        <v>7.949541759444401e-05</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5187561511993408</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.4792811870574951</v>
       </c>
       <c r="W275" t="n">
-        <v>0.00369863910600543</v>
+        <v>0.001558272750116885</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5212678909301758</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4786893129348755</v>
       </c>
       <c r="W276" t="n">
-        <v>0.001028502825647593</v>
+        <v>0.001812935341149569</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5240488052368164</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.4668633937835693</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002839755266904831</v>
+        <v>0.003270171349868178</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5232081413269043</v>
       </c>
       <c r="V278" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5296598076820374</v>
       </c>
       <c r="W278" t="n">
-        <v>0.00322383432649076</v>
+        <v>4.162400000495836e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5257589817047119</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5040803551673889</v>
       </c>
       <c r="W279" t="n">
-        <v>0.00805254653096199</v>
+        <v>0.000469962862553075</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5247311592102051</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.9465956091880798</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0007934945751912892</v>
+        <v>0.1779696196317673</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5191700458526611</v>
       </c>
       <c r="V281" t="n">
-        <v>0.480756551027298</v>
+        <v>0.4923046827316284</v>
       </c>
       <c r="W281" t="n">
-        <v>0.001475596567615867</v>
+        <v>0.0007217477541416883</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.405430793762207</v>
       </c>
       <c r="V282" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.5346217751502991</v>
       </c>
       <c r="W282" t="n">
-        <v>0.03974008932709694</v>
+        <v>0.01669031009078026</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3967528343200684</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4671811461448669</v>
       </c>
       <c r="W283" t="n">
-        <v>0.02337898686528206</v>
+        <v>0.004960147198289633</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4376189708709717</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.943567156791687</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01834324933588505</v>
+        <v>0.2559835612773895</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3993549346923828</v>
       </c>
       <c r="V285" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.5299347639083862</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1104432195425034</v>
+        <v>0.01705109141767025</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4000241756439209</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.8849997520446777</v>
       </c>
       <c r="W286" t="n">
-        <v>9.84862563200295e-05</v>
+        <v>0.2352013140916824</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3987021446228027</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.9195067286491394</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01377538312226534</v>
+        <v>0.2712374031543732</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3976900577545166</v>
       </c>
       <c r="V288" t="n">
-        <v>0.436027318239212</v>
+        <v>0.4715056419372559</v>
       </c>
       <c r="W288" t="n">
-        <v>0.001469745533540845</v>
+        <v>0.005448740441352129</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4138708114624023</v>
       </c>
       <c r="V289" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5847704410552979</v>
       </c>
       <c r="W289" t="n">
-        <v>0.04427417367696762</v>
+        <v>0.02920668385922909</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3986821174621582</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.4800863862037659</v>
       </c>
       <c r="W290" t="n">
-        <v>0.003575548063963652</v>
+        <v>0.006626654881983995</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3983268737792969</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.5294314622879028</v>
       </c>
       <c r="W291" t="n">
-        <v>0.001425922615453601</v>
+        <v>0.01718841306865215</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4204049110412598</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.9180729985237122</v>
       </c>
       <c r="W292" t="n">
-        <v>0.05600327253341675</v>
+        <v>0.2476735264062881</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3996679782867432</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4790463447570801</v>
       </c>
       <c r="W293" t="n">
-        <v>0.05955488607287407</v>
+        <v>0.006300925277173519</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3924770355224609</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4957989454269409</v>
       </c>
       <c r="W294" t="n">
-        <v>0.05065672099590302</v>
+        <v>0.01067541725933552</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4005439281463623</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.9450880885124207</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01061512529850006</v>
+        <v>0.2965283393859863</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3914310932159424</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4942480325698853</v>
       </c>
       <c r="W296" t="n">
-        <v>0.004367157816886902</v>
+        <v>0.01057132333517075</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3978681564331055</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.5296379923820496</v>
       </c>
       <c r="W297" t="n">
-        <v>0.006065307650715113</v>
+        <v>0.01736328937113285</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4001598358154297</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.9295091032981873</v>
       </c>
       <c r="W298" t="n">
-        <v>0.06598950177431107</v>
+        <v>0.2802106440067291</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.39882493019104</v>
       </c>
       <c r="V299" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.5324423313140869</v>
       </c>
       <c r="W299" t="n">
-        <v>0.00512358034029603</v>
+        <v>0.01785361021757126</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3953099250793457</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.8843298554420471</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0006275360356085002</v>
+        <v>0.2391404956579208</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3971028327941895</v>
       </c>
       <c r="V301" t="n">
-        <v>0.569115161895752</v>
+        <v>0.5186305046081543</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0295882411301136</v>
+        <v>0.01476897485554218</v>
       </c>
     </row>
     <row r="302" spans="1:23">
